--- a/client/public/Hojas de Calculo/ElementosSinFormulas.xlsx
+++ b/client/public/Hojas de Calculo/ElementosSinFormulas.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="124">
   <si>
     <t xml:space="preserve">z</t>
   </si>
@@ -52,6 +52,207 @@
     <t xml:space="preserve">tipo</t>
   </si>
   <si>
+    <t xml:space="preserve">Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidrógeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Litio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potasio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubidio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berilio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estroncio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal_Trancision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cromo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manganeso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3,4,6,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobalto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Níquel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paladio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadmio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercurio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aluminio</t>
   </si>
   <si>
@@ -61,6 +262,57 @@
     <t xml:space="preserve">Grupo13</t>
   </si>
   <si>
+    <t xml:space="preserve">Boro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4,2,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estaño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plomo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4,4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arsénico</t>
   </si>
   <si>
@@ -73,6 +325,18 @@
     <t xml:space="preserve">Grupo15</t>
   </si>
   <si>
+    <t xml:space="preserve">Fósforo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrógeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
     <t xml:space="preserve">Azufre</t>
   </si>
   <si>
@@ -85,28 +349,19 @@
     <t xml:space="preserve">Grupo16</t>
   </si>
   <si>
-    <t xml:space="preserve">Bario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berilio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3,3</t>
+    <t xml:space="preserve">Oxigeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2,2,4,7</t>
   </si>
   <si>
     <t xml:space="preserve">Bromo</t>
@@ -121,48 +376,6 @@
     <t xml:space="preserve">Grupo17</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadmio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metal_Trancision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4,2,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cloro</t>
   </si>
   <si>
@@ -172,214 +385,10 @@
     <t xml:space="preserve">-1,1,3,5,7</t>
   </si>
   <si>
-    <t xml:space="preserve">Cobalto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cromo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,3,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estaño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estroncio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flúor</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fósforo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidrógeno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hierro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Litio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnesio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manganeso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,3,4,6,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercurio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Níquel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrógeno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxigeno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paladio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plomo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potasio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubidio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selenio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2,2,4,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sodio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,3,4</t>
   </si>
   <si>
     <t xml:space="preserve">Yodo</t>
@@ -497,10 +506,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -510,6 +515,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -595,22 +604,23 @@
     <tabColor rgb="FFF10D0C"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="D33" activeCellId="0" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I46" activeCellId="0" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -633,1025 +643,1145 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="n">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>14</v>
+      <c r="I3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="G4" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>25</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>21</v>
+      <c r="H10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>25</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="n">
         <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="E17" s="4" t="n">
         <v>2</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>1</v>
+      <c r="D18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>28</v>
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>33</v>
+        <v>77</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>33</v>
+        <v>77</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E31" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="H31" s="0" t="s">
-        <v>14</v>
+        <v>77</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="5" t="n">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E33" s="5" t="n">
-        <v>37</v>
+        <v>88</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>18</v>
+        <v>87</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="E34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>25</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>33</v>
+        <v>98</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>39</v>
+        <v>98</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>2</v>
+      <c r="D38" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>1</v>
+      <c r="D39" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>5</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E40" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="F40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H40" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>42</v>
+      <c r="I40" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,15 +1789,15 @@
         <v>34</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="5" t="n">
+        <v>111</v>
+      </c>
+      <c r="E41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="0" t="n">
@@ -1677,85 +1807,97 @@
         <v>16</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>18</v>
+        <v>106</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="5" t="n">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>5</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>39</v>
+        <v>115</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5" t="n">
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>5</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="5" t="n">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>33</v>
+        <v>115</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,15 +1905,15 @@
         <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="5" t="n">
+      <c r="E45" s="4" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="0" t="n">
@@ -1781,7 +1923,10 @@
         <v>17</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +1953,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1876,12 +2021,12 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/client/public/Hojas de Calculo/ElementosSinFormulas.xlsx
+++ b/client/public/Hojas de Calculo/ElementosSinFormulas.xlsx
@@ -82,6 +82,9 @@
     <t xml:space="preserve">-1,1</t>
   </si>
   <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
     <t xml:space="preserve">Litio</t>
   </si>
   <si>
@@ -269,9 +272,6 @@
   </si>
   <si>
     <t xml:space="preserve">-3,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">Galio</t>
@@ -607,20 +607,20 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I46" activeCellId="0" sqref="I46"/>
+      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -737,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,10 +745,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>1</v>
@@ -774,10 +774,10 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>1</v>
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>1</v>
@@ -832,10 +832,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>1</v>
@@ -861,10 +861,10 @@
         <v>56</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>2</v>
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>12</v>
@@ -890,10 +890,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>2</v>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>12</v>
@@ -919,10 +919,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>2</v>
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>12</v>
@@ -948,10 +948,10 @@
         <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>2</v>
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>12</v>
@@ -977,10 +977,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>2</v>
@@ -995,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>12</v>
@@ -1006,10 +1006,10 @@
         <v>88</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>2</v>
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>12</v>
@@ -1035,13 +1035,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>12</v>
@@ -1064,13 +1064,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>12</v>
@@ -1093,13 +1093,13 @@
         <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>2</v>
@@ -1111,7 +1111,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>12</v>
@@ -1122,13 +1122,13 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>2</v>
@@ -1140,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>12</v>
@@ -1151,13 +1151,13 @@
         <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>12</v>
@@ -1180,13 +1180,13 @@
         <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>12</v>
@@ -1209,13 +1209,13 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>12</v>
@@ -1238,13 +1238,13 @@
         <v>78</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>1</v>
@@ -1256,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>12</v>
@@ -1267,13 +1267,13 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>2</v>
@@ -1285,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>12</v>
@@ -1296,13 +1296,13 @@
         <v>79</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>1</v>
@@ -1314,7 +1314,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>12</v>
@@ -1325,10 +1325,10 @@
         <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>12</v>
@@ -1354,10 +1354,10 @@
         <v>48</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>2</v>
@@ -1372,7 +1372,7 @@
         <v>12</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>12</v>
@@ -1383,10 +1383,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>2</v>
@@ -1401,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>12</v>
@@ -1412,13 +1412,13 @@
         <v>80</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>12</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>12</v>
@@ -1441,10 +1441,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>3</v>
@@ -1459,7 +1459,7 @@
         <v>13</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>12</v>
@@ -1470,13 +1470,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>1</v>
@@ -1488,10 +1488,10 @@
         <v>13</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,7 +1517,7 @@
         <v>13</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>12</v>
@@ -1549,7 +1549,7 @@
         <v>87</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,7 +1563,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>91</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>87</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,7 +1665,7 @@
         <v>98</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,7 +1694,7 @@
         <v>98</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,7 +1723,7 @@
         <v>98</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,7 +1752,7 @@
         <v>106</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,7 +1781,7 @@
         <v>106</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,7 +1810,7 @@
         <v>106</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,7 +1839,7 @@
         <v>115</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,7 +1868,7 @@
         <v>115</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,7 +1897,7 @@
         <v>115</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1926,7 @@
         <v>115</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1953,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">

--- a/client/public/Hojas de Calculo/ElementosSinFormulas.xlsx
+++ b/client/public/Hojas de Calculo/ElementosSinFormulas.xlsx
@@ -349,7 +349,7 @@
     <t xml:space="preserve">Grupo16</t>
   </si>
   <si>
-    <t xml:space="preserve">Oxigeno</t>
+    <t xml:space="preserve">Oxígeno</t>
   </si>
   <si>
     <t xml:space="preserve">O</t>
@@ -614,13 +614,13 @@
       <selection pane="bottomRight" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1953,7 +1953,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
